--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.9262069926607</v>
+        <v>442.075498280704</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.8959299710534</v>
+        <v>604.867199742192</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.7718271808513</v>
+        <v>547.1395231352431</v>
       </c>
       <c r="AD2" t="n">
-        <v>314926.2069926607</v>
+        <v>442075.498280704</v>
       </c>
       <c r="AE2" t="n">
-        <v>430895.9299710534</v>
+        <v>604867.1997421921</v>
       </c>
       <c r="AF2" t="n">
         <v>6.204084908696792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>389771.8271808513</v>
+        <v>547139.5231352431</v>
       </c>
     </row>
     <row r="3">
@@ -4458,28 +4458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.6556736498189</v>
+        <v>357.2952422048731</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.5899067185122</v>
+        <v>488.8671131383151</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.9890454458444</v>
+        <v>442.2103219896961</v>
       </c>
       <c r="AD3" t="n">
-        <v>249655.6736498189</v>
+        <v>357295.2422048731</v>
       </c>
       <c r="AE3" t="n">
-        <v>341589.9067185122</v>
+        <v>488867.113138315</v>
       </c>
       <c r="AF3" t="n">
         <v>7.539958989475355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>308989.0454458444</v>
+        <v>442210.3219896961</v>
       </c>
     </row>
     <row r="4">
@@ -4564,28 +4564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.6523554973155</v>
+        <v>333.5375682008019</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.4299490394707</v>
+        <v>456.36081545134</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.657687236515</v>
+        <v>412.8063797310907</v>
       </c>
       <c r="AD4" t="n">
-        <v>235652.3554973155</v>
+        <v>333537.5682008019</v>
       </c>
       <c r="AE4" t="n">
-        <v>322429.9490394707</v>
+        <v>456360.8154513401</v>
       </c>
       <c r="AF4" t="n">
         <v>8.015184215143702e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>291657.687236515</v>
+        <v>412806.3797310907</v>
       </c>
     </row>
     <row r="5">
@@ -4670,28 +4670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.4407637631457</v>
+        <v>321.2918110478511</v>
       </c>
       <c r="AB5" t="n">
-        <v>305.7215104913828</v>
+        <v>439.6056302699959</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.5438786130105</v>
+        <v>397.6502859074038</v>
       </c>
       <c r="AD5" t="n">
-        <v>223440.7637631457</v>
+        <v>321291.8110478511</v>
       </c>
       <c r="AE5" t="n">
-        <v>305721.5104913828</v>
+        <v>439605.6302699959</v>
       </c>
       <c r="AF5" t="n">
         <v>8.293026737696789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.93229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>276543.8786130105</v>
+        <v>397650.2859074038</v>
       </c>
     </row>
     <row r="6">
@@ -4776,28 +4776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.1515582306122</v>
+        <v>320.0026055153177</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.9575626060374</v>
+        <v>437.8416823846496</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.9482794381255</v>
+        <v>396.0546867325185</v>
       </c>
       <c r="AD6" t="n">
-        <v>222151.5582306122</v>
+        <v>320002.6055153176</v>
       </c>
       <c r="AE6" t="n">
-        <v>303957.5626060374</v>
+        <v>437841.6823846496</v>
       </c>
       <c r="AF6" t="n">
         <v>8.435503901105791e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>274948.2794381255</v>
+        <v>396054.6867325185</v>
       </c>
     </row>
     <row r="7">
@@ -4882,28 +4882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>221.07113281541</v>
+        <v>309.1005044408434</v>
       </c>
       <c r="AB7" t="n">
-        <v>302.4792768879532</v>
+        <v>422.9249467277995</v>
       </c>
       <c r="AC7" t="n">
-        <v>273.6110792341877</v>
+        <v>382.5615833909882</v>
       </c>
       <c r="AD7" t="n">
-        <v>221071.13281541</v>
+        <v>309100.5044408434</v>
       </c>
       <c r="AE7" t="n">
-        <v>302479.2768879532</v>
+        <v>422924.9467277995</v>
       </c>
       <c r="AF7" t="n">
         <v>8.572496537496934e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>273611.0792341877</v>
+        <v>382561.5833909882</v>
       </c>
     </row>
     <row r="8">
@@ -4988,28 +4988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>220.4641123255032</v>
+        <v>308.4934839509366</v>
       </c>
       <c r="AB8" t="n">
-        <v>301.6487246738091</v>
+        <v>422.094394513655</v>
       </c>
       <c r="AC8" t="n">
-        <v>272.8597937576739</v>
+        <v>381.8102979144743</v>
       </c>
       <c r="AD8" t="n">
-        <v>220464.1123255032</v>
+        <v>308493.4839509366</v>
       </c>
       <c r="AE8" t="n">
-        <v>301648.7246738091</v>
+        <v>422094.394513655</v>
       </c>
       <c r="AF8" t="n">
         <v>8.642529728648058e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>272859.7937576739</v>
+        <v>381810.2979144743</v>
       </c>
     </row>
     <row r="9">
@@ -5094,28 +5094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>209.7659240508588</v>
+        <v>307.5828059167833</v>
       </c>
       <c r="AB9" t="n">
-        <v>287.0109915056914</v>
+        <v>420.8483646510471</v>
       </c>
       <c r="AC9" t="n">
-        <v>259.6190652989292</v>
+        <v>380.6831873931397</v>
       </c>
       <c r="AD9" t="n">
-        <v>209765.9240508588</v>
+        <v>307582.8059167833</v>
       </c>
       <c r="AE9" t="n">
-        <v>287010.9915056914</v>
+        <v>420848.364651047</v>
       </c>
       <c r="AF9" t="n">
         <v>8.724556555805272e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>259619.0652989292</v>
+        <v>380683.1873931398</v>
       </c>
     </row>
     <row r="10">
@@ -5200,28 +5200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>209.4276250990873</v>
+        <v>307.2445069650117</v>
       </c>
       <c r="AB10" t="n">
-        <v>286.5481159551813</v>
+        <v>420.3854891005368</v>
       </c>
       <c r="AC10" t="n">
-        <v>259.2003659413098</v>
+        <v>380.2644880355203</v>
       </c>
       <c r="AD10" t="n">
-        <v>209427.6250990873</v>
+        <v>307244.5069650117</v>
       </c>
       <c r="AE10" t="n">
-        <v>286548.1159551814</v>
+        <v>420385.4891005368</v>
       </c>
       <c r="AF10" t="n">
         <v>8.723471704307234e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>259200.3659413098</v>
+        <v>380264.4880355203</v>
       </c>
     </row>
     <row r="11">
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>208.9465669396132</v>
+        <v>306.7634488055376</v>
       </c>
       <c r="AB11" t="n">
-        <v>285.8899109586011</v>
+        <v>419.7272841039562</v>
       </c>
       <c r="AC11" t="n">
-        <v>258.6049791058064</v>
+        <v>379.6691012000168</v>
       </c>
       <c r="AD11" t="n">
-        <v>208946.5669396132</v>
+        <v>306763.4488055376</v>
       </c>
       <c r="AE11" t="n">
-        <v>285889.9109586011</v>
+        <v>419727.2841039561</v>
       </c>
       <c r="AF11" t="n">
         <v>8.787779290329823e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>258604.9791058064</v>
+        <v>379669.1012000168</v>
       </c>
     </row>
     <row r="12">
@@ -5412,28 +5412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>208.3206009952871</v>
+        <v>306.1374828612116</v>
       </c>
       <c r="AB12" t="n">
-        <v>285.0334367379061</v>
+        <v>418.8708098832607</v>
       </c>
       <c r="AC12" t="n">
-        <v>257.8302455826652</v>
+        <v>378.8943676768755</v>
       </c>
       <c r="AD12" t="n">
-        <v>208320.6009952871</v>
+        <v>306137.4828612116</v>
       </c>
       <c r="AE12" t="n">
-        <v>285033.4367379061</v>
+        <v>418870.8098832608</v>
       </c>
       <c r="AF12" t="n">
         <v>8.794167860262715e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>257830.2455826652</v>
+        <v>378894.3676768755</v>
       </c>
     </row>
     <row r="13">
@@ -5518,28 +5518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>207.5844280034241</v>
+        <v>295.6811194365617</v>
       </c>
       <c r="AB13" t="n">
-        <v>284.0261723727794</v>
+        <v>404.5639521434577</v>
       </c>
       <c r="AC13" t="n">
-        <v>256.9191131148415</v>
+        <v>365.9529363599583</v>
       </c>
       <c r="AD13" t="n">
-        <v>207584.4280034241</v>
+        <v>295681.1194365618</v>
       </c>
       <c r="AE13" t="n">
-        <v>284026.1723727794</v>
+        <v>404563.9521434577</v>
       </c>
       <c r="AF13" t="n">
         <v>8.870047195597712e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>256919.1131148415</v>
+        <v>365952.9363599583</v>
       </c>
     </row>
     <row r="14">
@@ -5624,28 +5624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>207.5625861114977</v>
+        <v>295.6592775446354</v>
       </c>
       <c r="AB14" t="n">
-        <v>283.9962873326494</v>
+        <v>404.5340671033278</v>
       </c>
       <c r="AC14" t="n">
-        <v>256.8920802609976</v>
+        <v>365.9259035061144</v>
       </c>
       <c r="AD14" t="n">
-        <v>207562.5861114977</v>
+        <v>295659.2775446353</v>
       </c>
       <c r="AE14" t="n">
-        <v>283996.2873326495</v>
+        <v>404534.0671033278</v>
       </c>
       <c r="AF14" t="n">
         <v>8.865346172439547e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>256892.0802609976</v>
+        <v>365925.9035061144</v>
       </c>
     </row>
     <row r="15">
@@ -5730,28 +5730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>206.9798997998264</v>
+        <v>295.0765912329641</v>
       </c>
       <c r="AB15" t="n">
-        <v>283.1990302147154</v>
+        <v>403.7368099853933</v>
       </c>
       <c r="AC15" t="n">
-        <v>256.1709122434414</v>
+        <v>365.2047354885582</v>
       </c>
       <c r="AD15" t="n">
-        <v>206979.8997998264</v>
+        <v>295076.5912329641</v>
       </c>
       <c r="AE15" t="n">
-        <v>283199.0302147154</v>
+        <v>403736.8099853933</v>
       </c>
       <c r="AF15" t="n">
         <v>8.878786277109685e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>256170.9122434414</v>
+        <v>365204.7354885582</v>
       </c>
     </row>
     <row r="16">
@@ -5836,28 +5836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>206.5350628623812</v>
+        <v>294.6317542955189</v>
       </c>
       <c r="AB16" t="n">
-        <v>282.5903846920826</v>
+        <v>403.1281644627601</v>
       </c>
       <c r="AC16" t="n">
-        <v>255.6203549952492</v>
+        <v>364.6541782403658</v>
       </c>
       <c r="AD16" t="n">
-        <v>206535.0628623813</v>
+        <v>294631.7542955189</v>
       </c>
       <c r="AE16" t="n">
-        <v>282590.3846920826</v>
+        <v>403128.1644627601</v>
       </c>
       <c r="AF16" t="n">
         <v>8.881679214437788e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>255620.3549952492</v>
+        <v>364654.1782403658</v>
       </c>
     </row>
     <row r="17">
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>206.6503714248207</v>
+        <v>294.7470628579584</v>
       </c>
       <c r="AB17" t="n">
-        <v>282.748154954267</v>
+        <v>403.2859347249446</v>
       </c>
       <c r="AC17" t="n">
-        <v>255.7630678850427</v>
+        <v>364.7968911301594</v>
       </c>
       <c r="AD17" t="n">
-        <v>206650.3714248207</v>
+        <v>294747.0628579584</v>
       </c>
       <c r="AE17" t="n">
-        <v>282748.154954267</v>
+        <v>403285.9347249446</v>
       </c>
       <c r="AF17" t="n">
         <v>8.880232745773736e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>255763.0678850427</v>
+        <v>364796.8911301594</v>
       </c>
     </row>
   </sheetData>
@@ -6239,28 +6239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.6323918417199</v>
+        <v>385.7648162242364</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.9229338594392</v>
+        <v>527.8204403005706</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.7134468384832</v>
+        <v>477.445998278924</v>
       </c>
       <c r="AD2" t="n">
-        <v>269632.3918417199</v>
+        <v>385764.8162242364</v>
       </c>
       <c r="AE2" t="n">
-        <v>368922.9338594392</v>
+        <v>527820.4403005706</v>
       </c>
       <c r="AF2" t="n">
         <v>7.557077151194256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>333713.4468384832</v>
+        <v>477445.998278924</v>
       </c>
     </row>
     <row r="3">
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.7354080262973</v>
+        <v>326.439414300896</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.3341204723283</v>
+        <v>446.6488081370398</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.3345131852514</v>
+        <v>404.0212727639793</v>
       </c>
       <c r="AD3" t="n">
-        <v>229735.4080262973</v>
+        <v>326439.4143008961</v>
       </c>
       <c r="AE3" t="n">
-        <v>314334.1204723283</v>
+        <v>446648.8081370398</v>
       </c>
       <c r="AF3" t="n">
         <v>8.84750767342096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>284334.5131852514</v>
+        <v>404021.2727639793</v>
       </c>
     </row>
     <row r="4">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.2153506036202</v>
+        <v>313.9866766859231</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.2036255606793</v>
+        <v>429.6104231562234</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.838928665164</v>
+        <v>388.6090073322085</v>
       </c>
       <c r="AD4" t="n">
-        <v>217215.3506036202</v>
+        <v>313986.6766859231</v>
       </c>
       <c r="AE4" t="n">
-        <v>297203.6255606792</v>
+        <v>429610.4231562234</v>
       </c>
       <c r="AF4" t="n">
         <v>9.276552081516164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>268838.928665164</v>
+        <v>388609.0073322084</v>
       </c>
     </row>
     <row r="5">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.4804882417539</v>
+        <v>302.217648905276</v>
       </c>
       <c r="AB5" t="n">
-        <v>281.1474691715923</v>
+        <v>413.5075201338803</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.3151493068894</v>
+        <v>374.0429427737516</v>
       </c>
       <c r="AD5" t="n">
-        <v>205480.4882417539</v>
+        <v>302217.648905276</v>
       </c>
       <c r="AE5" t="n">
-        <v>281147.4691715923</v>
+        <v>413507.5201338804</v>
       </c>
       <c r="AF5" t="n">
         <v>9.568165111426553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>254315.1493068894</v>
+        <v>374042.9427737516</v>
       </c>
     </row>
     <row r="6">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.3343819687508</v>
+        <v>291.4593243197263</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.5793160062299</v>
+        <v>398.7875058121479</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.8966584787119</v>
+        <v>360.7277859592154</v>
       </c>
       <c r="AD6" t="n">
-        <v>204334.3819687508</v>
+        <v>291459.3243197263</v>
       </c>
       <c r="AE6" t="n">
-        <v>279579.31600623</v>
+        <v>398787.5058121479</v>
       </c>
       <c r="AF6" t="n">
         <v>9.730919737798971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH6" t="n">
-        <v>252896.6584787119</v>
+        <v>360727.7859592154</v>
       </c>
     </row>
     <row r="7">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.7957585870582</v>
+        <v>290.9207009380337</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.8423477330119</v>
+        <v>398.0505375389296</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.2300254231482</v>
+        <v>360.0611529036515</v>
       </c>
       <c r="AD7" t="n">
-        <v>203795.7585870582</v>
+        <v>290920.7009380337</v>
       </c>
       <c r="AE7" t="n">
-        <v>278842.3477330119</v>
+        <v>398050.5375389296</v>
       </c>
       <c r="AF7" t="n">
         <v>9.791919749709218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>252230.0254231482</v>
+        <v>360061.1529036515</v>
       </c>
     </row>
     <row r="8">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>202.9978390612901</v>
+        <v>290.0212961857804</v>
       </c>
       <c r="AB8" t="n">
-        <v>277.7505990361316</v>
+        <v>396.8199322779593</v>
       </c>
       <c r="AC8" t="n">
-        <v>251.2424716896188</v>
+        <v>358.9479948816229</v>
       </c>
       <c r="AD8" t="n">
-        <v>202997.8390612901</v>
+        <v>290021.2961857804</v>
       </c>
       <c r="AE8" t="n">
-        <v>277750.5990361316</v>
+        <v>396819.9322779593</v>
       </c>
       <c r="AF8" t="n">
         <v>9.879957604736439e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>251242.4716896188</v>
+        <v>358947.994881623</v>
       </c>
     </row>
     <row r="9">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>202.3257718079284</v>
+        <v>289.3492289324187</v>
       </c>
       <c r="AB9" t="n">
-        <v>276.8310469705679</v>
+        <v>395.9003802123951</v>
       </c>
       <c r="AC9" t="n">
-        <v>250.4106803825927</v>
+        <v>358.1162035745968</v>
       </c>
       <c r="AD9" t="n">
-        <v>202325.7718079284</v>
+        <v>289349.2289324187</v>
       </c>
       <c r="AE9" t="n">
-        <v>276831.0469705679</v>
+        <v>395900.3802123951</v>
       </c>
       <c r="AF9" t="n">
         <v>9.934560858640962e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>250410.6803825927</v>
+        <v>358116.2035745968</v>
       </c>
     </row>
     <row r="10">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>201.6909496420495</v>
+        <v>288.7144067665398</v>
       </c>
       <c r="AB10" t="n">
-        <v>275.9624552768355</v>
+        <v>395.0317885186623</v>
       </c>
       <c r="AC10" t="n">
-        <v>249.6249858610338</v>
+        <v>357.3305090530377</v>
       </c>
       <c r="AD10" t="n">
-        <v>201690.9496420495</v>
+        <v>288714.4067665398</v>
       </c>
       <c r="AE10" t="n">
-        <v>275962.4552768355</v>
+        <v>395031.7885186623</v>
       </c>
       <c r="AF10" t="n">
         <v>9.96206032346969e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>249624.9858610338</v>
+        <v>357330.5090530377</v>
       </c>
     </row>
     <row r="11">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>200.9283608928938</v>
+        <v>278.3395997048376</v>
       </c>
       <c r="AB11" t="n">
-        <v>274.9190477072</v>
+        <v>380.8365197926569</v>
       </c>
       <c r="AC11" t="n">
-        <v>248.6811596454123</v>
+        <v>344.4900168510575</v>
       </c>
       <c r="AD11" t="n">
-        <v>200928.3608928938</v>
+        <v>278339.5997048375</v>
       </c>
       <c r="AE11" t="n">
-        <v>274919.0477072</v>
+        <v>380836.5197926569</v>
       </c>
       <c r="AF11" t="n">
         <v>1.002681925503278e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>248681.1596454123</v>
+        <v>344490.0168510575</v>
       </c>
     </row>
     <row r="12">
@@ -7299,28 +7299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>200.9937353063654</v>
+        <v>278.4049741183091</v>
       </c>
       <c r="AB12" t="n">
-        <v>275.0084958638273</v>
+        <v>380.9259679492843</v>
       </c>
       <c r="AC12" t="n">
-        <v>248.7620709955124</v>
+        <v>344.5709282011576</v>
       </c>
       <c r="AD12" t="n">
-        <v>200993.7353063654</v>
+        <v>278404.9741183091</v>
       </c>
       <c r="AE12" t="n">
-        <v>275008.4958638273</v>
+        <v>380925.9679492842</v>
       </c>
       <c r="AF12" t="n">
         <v>1.002642357927985e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>248762.0709955124</v>
+        <v>344570.9282011576</v>
       </c>
     </row>
   </sheetData>
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.9358893955119</v>
+        <v>285.4223759552178</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.6151514846448</v>
+        <v>390.5274867284623</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.5515300097071</v>
+        <v>353.2560915038672</v>
       </c>
       <c r="AD2" t="n">
-        <v>191935.8893955119</v>
+        <v>285422.3759552178</v>
       </c>
       <c r="AE2" t="n">
-        <v>262615.1514846448</v>
+        <v>390527.4867284623</v>
       </c>
       <c r="AF2" t="n">
         <v>1.331808151983691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>237551.5300097071</v>
+        <v>353256.0915038672</v>
       </c>
     </row>
     <row r="3">
@@ -7702,28 +7702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.9924999555812</v>
+        <v>263.1576701943412</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.9054350308991</v>
+        <v>360.0639340569365</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.5320040385581</v>
+        <v>325.699937543447</v>
       </c>
       <c r="AD3" t="n">
-        <v>178992.4999555812</v>
+        <v>263157.6701943412</v>
       </c>
       <c r="AE3" t="n">
-        <v>244905.4350308991</v>
+        <v>360063.9340569365</v>
       </c>
       <c r="AF3" t="n">
         <v>1.439723188882534e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>221532.0040385581</v>
+        <v>325699.9375434471</v>
       </c>
     </row>
     <row r="4">
@@ -7808,28 +7808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.2663652846165</v>
+        <v>252.0428993947232</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.5436614223993</v>
+        <v>344.8562142996557</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.3956347884826</v>
+        <v>311.9436212157361</v>
       </c>
       <c r="AD4" t="n">
-        <v>177266.3652846165</v>
+        <v>252042.8993947232</v>
       </c>
       <c r="AE4" t="n">
-        <v>242543.6614223993</v>
+        <v>344856.2142996557</v>
       </c>
       <c r="AF4" t="n">
         <v>1.476081462146816e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>219395.6347884826</v>
+        <v>311943.6212157361</v>
       </c>
     </row>
     <row r="5">
@@ -7914,28 +7914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.3109288814014</v>
+        <v>252.0874629915081</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.6046353015274</v>
+        <v>344.9171881787839</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.4507894061642</v>
+        <v>311.9987758334177</v>
       </c>
       <c r="AD5" t="n">
-        <v>177310.9288814014</v>
+        <v>252087.4629915081</v>
       </c>
       <c r="AE5" t="n">
-        <v>242604.6353015274</v>
+        <v>344917.1881787839</v>
       </c>
       <c r="AF5" t="n">
         <v>1.474443038693387e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>219450.7894061642</v>
+        <v>311998.7758334177</v>
       </c>
     </row>
   </sheetData>
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.7529276914875</v>
+        <v>315.578628976279</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.0438945991833</v>
+        <v>431.7886025118666</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.2172492199951</v>
+        <v>390.5793043072431</v>
       </c>
       <c r="AD2" t="n">
-        <v>220752.9276914875</v>
+        <v>315578.6289762791</v>
       </c>
       <c r="AE2" t="n">
-        <v>302043.8945991833</v>
+        <v>431788.6025118666</v>
       </c>
       <c r="AF2" t="n">
         <v>1.06326230935332e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>273217.2492199951</v>
+        <v>390579.3043072431</v>
       </c>
     </row>
     <row r="3">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.1350562248587</v>
+        <v>281.478187381171</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.3606367947201</v>
+        <v>385.1308739161323</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.7486742656299</v>
+        <v>348.3745238441522</v>
       </c>
       <c r="AD3" t="n">
-        <v>196135.0562248587</v>
+        <v>281478.187381171</v>
       </c>
       <c r="AE3" t="n">
-        <v>268360.6367947201</v>
+        <v>385130.8739161323</v>
       </c>
       <c r="AF3" t="n">
         <v>1.184233227327546e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>242748.6742656298</v>
+        <v>348374.5238441522</v>
       </c>
     </row>
     <row r="4">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.6284991905908</v>
+        <v>269.9374649281222</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.6168578269733</v>
+        <v>369.3403483151295</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.5074594660273</v>
+        <v>334.0910238443674</v>
       </c>
       <c r="AD4" t="n">
-        <v>184628.4991905908</v>
+        <v>269937.4649281222</v>
       </c>
       <c r="AE4" t="n">
-        <v>252616.8578269733</v>
+        <v>369340.3483151295</v>
       </c>
       <c r="AF4" t="n">
         <v>1.225237075644587e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>228507.4594660273</v>
+        <v>334091.0238443674</v>
       </c>
     </row>
     <row r="5">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.4789020481537</v>
+        <v>268.7878677856851</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.0439283000452</v>
+        <v>367.7674187882006</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.0846481255282</v>
+        <v>332.6682125038681</v>
       </c>
       <c r="AD5" t="n">
-        <v>183478.9020481537</v>
+        <v>268787.8677856851</v>
       </c>
       <c r="AE5" t="n">
-        <v>251043.9283000452</v>
+        <v>367767.4187882006</v>
       </c>
       <c r="AF5" t="n">
         <v>1.242263556983079e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>227084.6481255282</v>
+        <v>332668.2125038681</v>
       </c>
     </row>
     <row r="6">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.6204246816537</v>
+        <v>267.9293904191851</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.869321693852</v>
+        <v>366.5928121820069</v>
       </c>
       <c r="AC6" t="n">
-        <v>226.0221443252591</v>
+        <v>331.6057087035987</v>
       </c>
       <c r="AD6" t="n">
-        <v>182620.4246816537</v>
+        <v>267929.3904191851</v>
       </c>
       <c r="AE6" t="n">
-        <v>249869.321693852</v>
+        <v>366592.8121820069</v>
       </c>
       <c r="AF6" t="n">
         <v>1.257233468946415e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>226022.1443252591</v>
+        <v>331605.7087035988</v>
       </c>
     </row>
     <row r="7">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.4926831056693</v>
+        <v>267.8016488432007</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.6945400340297</v>
+        <v>366.4180305221844</v>
       </c>
       <c r="AC7" t="n">
-        <v>225.8640435817424</v>
+        <v>331.4476079600821</v>
       </c>
       <c r="AD7" t="n">
-        <v>182492.6831056693</v>
+        <v>267801.6488432007</v>
       </c>
       <c r="AE7" t="n">
-        <v>249694.5400340297</v>
+        <v>366418.0305221844</v>
       </c>
       <c r="AF7" t="n">
         <v>1.25816609924445e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>225864.0435817424</v>
+        <v>331447.6079600821</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.0559159083577</v>
+        <v>259.0327070488538</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.2016682365165</v>
+        <v>354.41997750075</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.0364563908704</v>
+        <v>320.5946322796402</v>
       </c>
       <c r="AD2" t="n">
-        <v>185055.9159083577</v>
+        <v>259032.7070488537</v>
       </c>
       <c r="AE2" t="n">
-        <v>253201.6682365165</v>
+        <v>354419.9775007499</v>
       </c>
       <c r="AF2" t="n">
         <v>1.613467275316954e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>229036.4563908704</v>
+        <v>320594.6322796402</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.2468381051557</v>
+        <v>247.1894638268678</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.0439670064399</v>
+        <v>338.2155296372535</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.4208234887111</v>
+        <v>305.936714177252</v>
       </c>
       <c r="AD3" t="n">
-        <v>173246.8381051557</v>
+        <v>247189.4638268678</v>
       </c>
       <c r="AE3" t="n">
-        <v>237043.9670064399</v>
+        <v>338215.5296372535</v>
       </c>
       <c r="AF3" t="n">
         <v>1.703933700804695e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>214420.8234887111</v>
+        <v>305936.714177252</v>
       </c>
     </row>
     <row r="4">
@@ -9250,28 +9250,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.402253479025</v>
+        <v>247.344879200737</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.2566131774102</v>
+        <v>338.4281758082238</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.6131750075748</v>
+        <v>306.1290656961157</v>
       </c>
       <c r="AD4" t="n">
-        <v>173402.253479025</v>
+        <v>247344.8792007371</v>
       </c>
       <c r="AE4" t="n">
-        <v>237256.6131774102</v>
+        <v>338428.1758082238</v>
       </c>
       <c r="AF4" t="n">
         <v>1.703016490803829e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>214613.1750075748</v>
+        <v>306129.0656961157</v>
       </c>
     </row>
   </sheetData>
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.3128031016734</v>
+        <v>399.7184622611094</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.6410760824568</v>
+        <v>546.912434399637</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.6451558388138</v>
+        <v>494.7158792569575</v>
       </c>
       <c r="AD2" t="n">
-        <v>283312.8031016734</v>
+        <v>399718.4622611094</v>
       </c>
       <c r="AE2" t="n">
-        <v>387641.0760824569</v>
+        <v>546912.434399637</v>
       </c>
       <c r="AF2" t="n">
         <v>7.172449376249835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>350645.1558388137</v>
+        <v>494715.8792569574</v>
       </c>
     </row>
     <row r="3">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.883448372598</v>
+        <v>328.9727353608686</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.2731640389874</v>
+        <v>450.1150097735315</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.993058558883</v>
+        <v>407.1566649811288</v>
       </c>
       <c r="AD3" t="n">
-        <v>231883.448372598</v>
+        <v>328972.7353608686</v>
       </c>
       <c r="AE3" t="n">
-        <v>317273.1640389874</v>
+        <v>450115.0097735315</v>
       </c>
       <c r="AF3" t="n">
         <v>8.531388979482241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>286993.058558883</v>
+        <v>407156.6649811288</v>
       </c>
     </row>
     <row r="4">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.0123173874985</v>
+        <v>316.067438956988</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.6623147909598</v>
+        <v>432.457413892247</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.0629640460994</v>
+        <v>391.1842852681626</v>
       </c>
       <c r="AD4" t="n">
-        <v>219012.3173874985</v>
+        <v>316067.438956988</v>
       </c>
       <c r="AE4" t="n">
-        <v>299662.3147909598</v>
+        <v>432457.413892247</v>
       </c>
       <c r="AF4" t="n">
         <v>8.973879329050174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>271062.9640460994</v>
+        <v>391184.2852681626</v>
       </c>
     </row>
     <row r="5">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.4865250957319</v>
+        <v>304.799563577471</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.5746584641605</v>
+        <v>417.0402096944139</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.1745507090851</v>
+        <v>377.2384774007887</v>
       </c>
       <c r="AD5" t="n">
-        <v>217486.5250957319</v>
+        <v>304799.563577471</v>
       </c>
       <c r="AE5" t="n">
-        <v>297574.6584641605</v>
+        <v>417040.2096944139</v>
       </c>
       <c r="AF5" t="n">
         <v>9.18090251906763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>269174.5507090851</v>
+        <v>377238.4774007887</v>
       </c>
     </row>
     <row r="6">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.7406299117632</v>
+        <v>303.7615860624718</v>
       </c>
       <c r="AB6" t="n">
-        <v>282.871650598025</v>
+        <v>415.6200030660559</v>
       </c>
       <c r="AC6" t="n">
-        <v>255.8747772778878</v>
+        <v>375.9538132997687</v>
       </c>
       <c r="AD6" t="n">
-        <v>206740.6299117632</v>
+        <v>303761.5860624718</v>
       </c>
       <c r="AE6" t="n">
-        <v>282871.6505980251</v>
+        <v>415620.0030660559</v>
       </c>
       <c r="AF6" t="n">
         <v>9.312246731323034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>255874.7772778878</v>
+        <v>375953.8132997687</v>
       </c>
     </row>
     <row r="7">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>205.5175017094564</v>
+        <v>292.8978599988998</v>
       </c>
       <c r="AB7" t="n">
-        <v>281.1981126310217</v>
+        <v>400.7557737921082</v>
       </c>
       <c r="AC7" t="n">
-        <v>254.3609594256294</v>
+        <v>362.5082052056497</v>
       </c>
       <c r="AD7" t="n">
-        <v>205517.5017094564</v>
+        <v>292897.8599988998</v>
       </c>
       <c r="AE7" t="n">
-        <v>281198.1126310217</v>
+        <v>400755.7737921082</v>
       </c>
       <c r="AF7" t="n">
         <v>9.477569260124664e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>254360.9594256294</v>
+        <v>362508.2052056497</v>
       </c>
     </row>
     <row r="8">
@@ -10183,28 +10183,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>204.7836576016341</v>
+        <v>292.1640158910775</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.1940347477827</v>
+        <v>399.7516959088686</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.4527093263342</v>
+        <v>361.5999551063543</v>
       </c>
       <c r="AD8" t="n">
-        <v>204783.6576016341</v>
+        <v>292164.0158910775</v>
       </c>
       <c r="AE8" t="n">
-        <v>280194.0347477827</v>
+        <v>399751.6959088686</v>
       </c>
       <c r="AF8" t="n">
         <v>9.548679183957206e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>253452.7093263342</v>
+        <v>361599.9551063543</v>
       </c>
     </row>
     <row r="9">
@@ -10289,28 +10289,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>204.4436644257405</v>
+        <v>291.824022715184</v>
       </c>
       <c r="AB9" t="n">
-        <v>279.728841085085</v>
+        <v>399.2865022461707</v>
       </c>
       <c r="AC9" t="n">
-        <v>253.0319130939009</v>
+        <v>361.1791588739209</v>
       </c>
       <c r="AD9" t="n">
-        <v>204443.6644257405</v>
+        <v>291824.022715184</v>
       </c>
       <c r="AE9" t="n">
-        <v>279728.841085085</v>
+        <v>399286.5022461707</v>
       </c>
       <c r="AF9" t="n">
         <v>9.548293066723728e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>253031.9130939009</v>
+        <v>361179.1588739209</v>
       </c>
     </row>
     <row r="10">
@@ -10395,28 +10395,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>203.9116486924064</v>
+        <v>291.1905217553646</v>
       </c>
       <c r="AB10" t="n">
-        <v>279.0009136878599</v>
+        <v>398.4197182848559</v>
       </c>
       <c r="AC10" t="n">
-        <v>252.3734580658142</v>
+        <v>360.3950995573351</v>
       </c>
       <c r="AD10" t="n">
-        <v>203911.6486924064</v>
+        <v>291190.5217553645</v>
       </c>
       <c r="AE10" t="n">
-        <v>279000.9136878599</v>
+        <v>398419.7182848559</v>
       </c>
       <c r="AF10" t="n">
         <v>9.616442758432925e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>252373.4580658142</v>
+        <v>360395.0995573351</v>
       </c>
     </row>
     <row r="11">
@@ -10501,28 +10501,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>203.1697239814535</v>
+        <v>290.4485970444117</v>
       </c>
       <c r="AB11" t="n">
-        <v>277.9857795669266</v>
+        <v>397.404584163922</v>
       </c>
       <c r="AC11" t="n">
-        <v>251.4552069206327</v>
+        <v>359.4768484121536</v>
       </c>
       <c r="AD11" t="n">
-        <v>203169.7239814535</v>
+        <v>290448.5970444117</v>
       </c>
       <c r="AE11" t="n">
-        <v>277985.7795669266</v>
+        <v>397404.584163922</v>
       </c>
       <c r="AF11" t="n">
         <v>9.622878045657589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>251455.2069206327</v>
+        <v>359476.8484121535</v>
       </c>
     </row>
     <row r="12">
@@ -10607,28 +10607,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>202.5996345362748</v>
+        <v>289.8785075992329</v>
       </c>
       <c r="AB12" t="n">
-        <v>277.2057580374621</v>
+        <v>396.6245626344572</v>
       </c>
       <c r="AC12" t="n">
-        <v>250.7496295511729</v>
+        <v>358.7712710426936</v>
       </c>
       <c r="AD12" t="n">
-        <v>202599.6345362748</v>
+        <v>289878.507599233</v>
       </c>
       <c r="AE12" t="n">
-        <v>277205.7580374621</v>
+        <v>396624.5626344571</v>
       </c>
       <c r="AF12" t="n">
         <v>9.712006773719192e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>250749.629551173</v>
+        <v>358771.2710426936</v>
       </c>
     </row>
     <row r="13">
@@ -10713,28 +10713,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>202.6669342007251</v>
+        <v>289.9458072636833</v>
       </c>
       <c r="AB13" t="n">
-        <v>277.2978404074146</v>
+        <v>396.7166450044097</v>
       </c>
       <c r="AC13" t="n">
-        <v>250.8329237089757</v>
+        <v>358.8545652004964</v>
       </c>
       <c r="AD13" t="n">
-        <v>202666.9342007251</v>
+        <v>289945.8072636833</v>
       </c>
       <c r="AE13" t="n">
-        <v>277297.8404074146</v>
+        <v>396716.6450044097</v>
       </c>
       <c r="AF13" t="n">
         <v>9.696562084379998e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>250832.9237089757</v>
+        <v>358854.5652004964</v>
       </c>
     </row>
   </sheetData>
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9892592850966</v>
+        <v>254.6607591344712</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.3232921843739</v>
+        <v>348.4380854873977</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8643674566802</v>
+        <v>315.1836436445088</v>
       </c>
       <c r="AD2" t="n">
-        <v>171989.2592850966</v>
+        <v>254660.7591344712</v>
       </c>
       <c r="AE2" t="n">
-        <v>235323.2921843739</v>
+        <v>348438.0854873977</v>
       </c>
       <c r="AF2" t="n">
         <v>1.817259656431779e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>212864.3674566802</v>
+        <v>315183.6436445088</v>
       </c>
     </row>
     <row r="3">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.9943329653987</v>
+        <v>244.4431600627212</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.9619901007125</v>
+        <v>334.4579156687791</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.6329861332835</v>
+        <v>302.5377216120831</v>
       </c>
       <c r="AD3" t="n">
-        <v>170994.3329653987</v>
+        <v>244443.1600627212</v>
       </c>
       <c r="AE3" t="n">
-        <v>233961.9901007125</v>
+        <v>334457.9156687791</v>
       </c>
       <c r="AF3" t="n">
         <v>1.865928323651671e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>211632.9861332835</v>
+        <v>302537.7216120831</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.7766270135129</v>
+        <v>345.6279104605229</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.7554004468041</v>
+        <v>472.9033551193462</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.13874468498</v>
+        <v>427.7701226307825</v>
       </c>
       <c r="AD2" t="n">
-        <v>249776.6270135129</v>
+        <v>345627.9104605229</v>
       </c>
       <c r="AE2" t="n">
-        <v>341755.4004468041</v>
+        <v>472903.3551193462</v>
       </c>
       <c r="AF2" t="n">
         <v>8.860639306174726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>309138.74468498</v>
+        <v>427770.1226307824</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.8326664506095</v>
+        <v>299.0613406952451</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.2070437521542</v>
+        <v>409.1889199944255</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.4146522081872</v>
+        <v>370.1365037704129</v>
       </c>
       <c r="AD3" t="n">
-        <v>212832.6664506095</v>
+        <v>299061.3406952451</v>
       </c>
       <c r="AE3" t="n">
-        <v>291207.0437521542</v>
+        <v>409188.9199944255</v>
       </c>
       <c r="AF3" t="n">
         <v>1.014247659474837e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>263414.6522081873</v>
+        <v>370136.5037704129</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.9857012580528</v>
+        <v>287.2816953103927</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.9975033244888</v>
+        <v>393.0714894975933</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.7521275687002</v>
+        <v>355.5572982192426</v>
       </c>
       <c r="AD4" t="n">
-        <v>200985.7012580528</v>
+        <v>287281.6953103927</v>
       </c>
       <c r="AE4" t="n">
-        <v>274997.5033244888</v>
+        <v>393071.4894975933</v>
       </c>
       <c r="AF4" t="n">
         <v>1.054819573654462e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>248752.1275687002</v>
+        <v>355557.2982192426</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.7166933613748</v>
+        <v>285.9112021872294</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.2611907355776</v>
+        <v>391.1963203445919</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.1815262163441</v>
+        <v>353.8610925783872</v>
       </c>
       <c r="AD5" t="n">
-        <v>199716.6933613748</v>
+        <v>285911.2021872294</v>
       </c>
       <c r="AE5" t="n">
-        <v>273261.1907355776</v>
+        <v>391196.3203445919</v>
       </c>
       <c r="AF5" t="n">
         <v>1.076819331997178e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>247181.5262163441</v>
+        <v>353861.0925783872</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.5096411726897</v>
+        <v>275.1840370525129</v>
       </c>
       <c r="AB6" t="n">
-        <v>271.6096486796352</v>
+        <v>376.5189397581472</v>
       </c>
       <c r="AC6" t="n">
-        <v>245.6876050162665</v>
+        <v>340.5845005952798</v>
       </c>
       <c r="AD6" t="n">
-        <v>198509.6411726897</v>
+        <v>275184.0370525129</v>
       </c>
       <c r="AE6" t="n">
-        <v>271609.6486796352</v>
+        <v>376518.9397581472</v>
       </c>
       <c r="AF6" t="n">
         <v>1.094072075990846e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>245687.6050162665</v>
+        <v>340584.5005952798</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>188.0694071393182</v>
+        <v>274.3312357728772</v>
       </c>
       <c r="AB7" t="n">
-        <v>257.3248598845648</v>
+        <v>375.3520994244124</v>
       </c>
       <c r="AC7" t="n">
-        <v>232.7661364149661</v>
+        <v>339.5290218653259</v>
       </c>
       <c r="AD7" t="n">
-        <v>188069.4071393182</v>
+        <v>274331.2357728772</v>
       </c>
       <c r="AE7" t="n">
-        <v>257324.8598845649</v>
+        <v>375352.0994244124</v>
       </c>
       <c r="AF7" t="n">
         <v>1.102906398767321e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>232766.1364149661</v>
+        <v>339529.0218653259</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>187.3932681635518</v>
+        <v>273.6550967971107</v>
       </c>
       <c r="AB8" t="n">
-        <v>256.3997367087753</v>
+        <v>374.4269762486224</v>
       </c>
       <c r="AC8" t="n">
-        <v>231.9293056966551</v>
+        <v>338.6921911470148</v>
       </c>
       <c r="AD8" t="n">
-        <v>187393.2681635518</v>
+        <v>273655.0967971107</v>
       </c>
       <c r="AE8" t="n">
-        <v>256399.7367087753</v>
+        <v>374426.9762486224</v>
       </c>
       <c r="AF8" t="n">
         <v>1.109209458605408e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>231929.3056966552</v>
+        <v>338692.1911470148</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.1232055874227</v>
+        <v>273.3850342209817</v>
       </c>
       <c r="AB9" t="n">
-        <v>256.0302251777957</v>
+        <v>374.0574647176426</v>
       </c>
       <c r="AC9" t="n">
-        <v>231.5950598275794</v>
+        <v>338.357945277939</v>
       </c>
       <c r="AD9" t="n">
-        <v>187123.2055874227</v>
+        <v>273385.0342209816</v>
       </c>
       <c r="AE9" t="n">
-        <v>256030.2251777957</v>
+        <v>374057.4647176426</v>
       </c>
       <c r="AF9" t="n">
         <v>1.108442191935697e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.84895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>231595.0598275794</v>
+        <v>338357.945277939</v>
       </c>
     </row>
   </sheetData>
@@ -12452,28 +12452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.1805185652788</v>
+        <v>372.2751935253037</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.1999285567113</v>
+        <v>509.3633434037388</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.441198533068</v>
+        <v>460.7504208052276</v>
       </c>
       <c r="AD2" t="n">
-        <v>266180.5185652787</v>
+        <v>372275.1935253037</v>
       </c>
       <c r="AE2" t="n">
-        <v>364199.9285567113</v>
+        <v>509363.3434037388</v>
       </c>
       <c r="AF2" t="n">
         <v>7.955183539278725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>329441.198533068</v>
+        <v>460750.4208052276</v>
       </c>
     </row>
     <row r="3">
@@ -12558,28 +12558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.5328624842753</v>
+        <v>314.359521996224</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.3205004922838</v>
+        <v>430.120566558551</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.6085088664592</v>
+        <v>389.0704633642088</v>
       </c>
       <c r="AD3" t="n">
-        <v>227532.8624842752</v>
+        <v>314359.5219962239</v>
       </c>
       <c r="AE3" t="n">
-        <v>311320.5004922838</v>
+        <v>430120.566558551</v>
       </c>
       <c r="AF3" t="n">
         <v>9.220356349374682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>281608.5088664592</v>
+        <v>389070.4633642088</v>
       </c>
     </row>
     <row r="4">
@@ -12664,28 +12664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.8253227716542</v>
+        <v>301.6178168648219</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.9334840403987</v>
+        <v>412.6868034734092</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.8808848619055</v>
+        <v>373.3005541594727</v>
       </c>
       <c r="AD4" t="n">
-        <v>214825.3227716542</v>
+        <v>301617.8168648219</v>
       </c>
       <c r="AE4" t="n">
-        <v>293933.4840403987</v>
+        <v>412686.8034734091</v>
       </c>
       <c r="AF4" t="n">
         <v>9.701666206671512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>265880.8848619055</v>
+        <v>373300.5541594727</v>
       </c>
     </row>
     <row r="5">
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.634057950027</v>
+        <v>290.493871850899</v>
       </c>
       <c r="AB5" t="n">
-        <v>278.6211017876974</v>
+        <v>397.4665311515415</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.0298948803337</v>
+        <v>359.5328832662177</v>
       </c>
       <c r="AD5" t="n">
-        <v>203634.057950027</v>
+        <v>290493.871850899</v>
       </c>
       <c r="AE5" t="n">
-        <v>278621.1017876974</v>
+        <v>397466.5311515415</v>
       </c>
       <c r="AF5" t="n">
         <v>9.919274305561864e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>252029.8948803337</v>
+        <v>359532.8832662177</v>
       </c>
     </row>
     <row r="6">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.5429905507399</v>
+        <v>289.4028044516119</v>
       </c>
       <c r="AB6" t="n">
-        <v>277.1282552374971</v>
+        <v>395.9736846013404</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.6795235096607</v>
+        <v>358.1825118955445</v>
       </c>
       <c r="AD6" t="n">
-        <v>202542.9905507399</v>
+        <v>289402.8044516119</v>
       </c>
       <c r="AE6" t="n">
-        <v>277128.2552374971</v>
+        <v>395973.6846013404</v>
       </c>
       <c r="AF6" t="n">
         <v>1.006432380973668e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>250679.5235096607</v>
+        <v>358182.5118955445</v>
       </c>
     </row>
     <row r="7">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>201.9523779423511</v>
+        <v>288.7107066167378</v>
       </c>
       <c r="AB7" t="n">
-        <v>276.3201530107105</v>
+        <v>395.0267258104641</v>
       </c>
       <c r="AC7" t="n">
-        <v>249.9485454252198</v>
+        <v>357.3259295226044</v>
       </c>
       <c r="AD7" t="n">
-        <v>201952.3779423511</v>
+        <v>288710.7066167378</v>
       </c>
       <c r="AE7" t="n">
-        <v>276320.1530107105</v>
+        <v>395026.7258104641</v>
       </c>
       <c r="AF7" t="n">
         <v>1.013085841664468e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>249948.5454252198</v>
+        <v>357325.9295226044</v>
       </c>
     </row>
     <row r="8">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>201.1152706873384</v>
+        <v>287.8735993617251</v>
       </c>
       <c r="AB8" t="n">
-        <v>275.174785933837</v>
+        <v>393.88135873359</v>
       </c>
       <c r="AC8" t="n">
-        <v>248.91249057463</v>
+        <v>356.2898746720144</v>
       </c>
       <c r="AD8" t="n">
-        <v>201115.2706873383</v>
+        <v>287873.5993617251</v>
       </c>
       <c r="AE8" t="n">
-        <v>275174.785933837</v>
+        <v>393881.35873359</v>
       </c>
       <c r="AF8" t="n">
         <v>1.02196614728637e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>248912.49057463</v>
+        <v>356289.8746720144</v>
       </c>
     </row>
     <row r="9">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>200.4872371237123</v>
+        <v>277.6628062022307</v>
       </c>
       <c r="AB9" t="n">
-        <v>274.315482705199</v>
+        <v>379.9105010643681</v>
       </c>
       <c r="AC9" t="n">
-        <v>248.1351980400932</v>
+        <v>343.6523760505212</v>
       </c>
       <c r="AD9" t="n">
-        <v>200487.2371237123</v>
+        <v>277662.8062022307</v>
       </c>
       <c r="AE9" t="n">
-        <v>274315.482705199</v>
+        <v>379910.5010643681</v>
       </c>
       <c r="AF9" t="n">
         <v>1.029736414705534e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>248135.1980400932</v>
+        <v>343652.3760505212</v>
       </c>
     </row>
     <row r="10">
@@ -13300,28 +13300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>199.7905198038102</v>
+        <v>276.9660888823286</v>
       </c>
       <c r="AB10" t="n">
-        <v>273.3622033311105</v>
+        <v>378.9572216902791</v>
       </c>
       <c r="AC10" t="n">
-        <v>247.2728983115314</v>
+        <v>342.7900763219592</v>
       </c>
       <c r="AD10" t="n">
-        <v>199790.5198038102</v>
+        <v>276966.0888823286</v>
       </c>
       <c r="AE10" t="n">
-        <v>273362.2033311105</v>
+        <v>378957.2216902791</v>
       </c>
       <c r="AF10" t="n">
         <v>1.029262617911682e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>247272.8983115314</v>
+        <v>342790.0763219593</v>
       </c>
     </row>
     <row r="11">
@@ -13406,28 +13406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>189.5171117871527</v>
+        <v>276.3427602692437</v>
       </c>
       <c r="AB11" t="n">
-        <v>259.3056732519524</v>
+        <v>378.1043559825388</v>
       </c>
       <c r="AC11" t="n">
-        <v>234.5579037346599</v>
+        <v>342.0186069203611</v>
       </c>
       <c r="AD11" t="n">
-        <v>189517.1117871527</v>
+        <v>276342.7602692437</v>
       </c>
       <c r="AE11" t="n">
-        <v>259305.6732519525</v>
+        <v>378104.3559825388</v>
       </c>
       <c r="AF11" t="n">
         <v>1.037987247444176e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>234557.9037346599</v>
+        <v>342018.6069203611</v>
       </c>
     </row>
   </sheetData>
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.8751856637995</v>
+        <v>427.7578749430442</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.6707027015939</v>
+        <v>585.2771958426437</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.381428619213</v>
+        <v>529.4191617131245</v>
       </c>
       <c r="AD2" t="n">
-        <v>300875.1856637995</v>
+        <v>427757.8749430442</v>
       </c>
       <c r="AE2" t="n">
-        <v>411670.7027015939</v>
+        <v>585277.1958426436</v>
       </c>
       <c r="AF2" t="n">
         <v>6.506867489122465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>372381.428619213</v>
+        <v>529419.1617131245</v>
       </c>
     </row>
     <row r="3">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.1508426731454</v>
+        <v>344.711872633156</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.1626864708857</v>
+        <v>471.6499917512061</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.8889142885164</v>
+        <v>426.6363785033911</v>
       </c>
       <c r="AD3" t="n">
-        <v>247150.8426731454</v>
+        <v>344711.872633156</v>
       </c>
       <c r="AE3" t="n">
-        <v>338162.6864708857</v>
+        <v>471649.9917512061</v>
       </c>
       <c r="AF3" t="n">
         <v>7.836212296809231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>305888.9142885164</v>
+        <v>426636.3785033912</v>
       </c>
     </row>
     <row r="4">
@@ -13915,28 +13915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.0375332819216</v>
+        <v>330.5643978231512</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.852233926556</v>
+        <v>452.2927925736186</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.4214242326211</v>
+        <v>409.1266032473131</v>
       </c>
       <c r="AD4" t="n">
-        <v>233037.5332819216</v>
+        <v>330564.3978231513</v>
       </c>
       <c r="AE4" t="n">
-        <v>318852.233926556</v>
+        <v>452292.7925736186</v>
       </c>
       <c r="AF4" t="n">
         <v>8.352075609359374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>288421.424232621</v>
+        <v>409126.6032473131</v>
       </c>
     </row>
     <row r="5">
@@ -14021,28 +14021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.0184807747207</v>
+        <v>318.6126651236546</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.407236043038</v>
+        <v>435.9399046209337</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.5459138664013</v>
+        <v>394.3344119694099</v>
       </c>
       <c r="AD5" t="n">
-        <v>221018.4807747207</v>
+        <v>318612.6651236545</v>
       </c>
       <c r="AE5" t="n">
-        <v>302407.236043038</v>
+        <v>435939.9046209337</v>
       </c>
       <c r="AF5" t="n">
         <v>8.628343056085297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>273545.9138664013</v>
+        <v>394334.4119694099</v>
       </c>
     </row>
     <row r="6">
@@ -14127,28 +14127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>220.1637390186353</v>
+        <v>307.9619340018743</v>
       </c>
       <c r="AB6" t="n">
-        <v>301.2377406638176</v>
+        <v>421.3671044230191</v>
       </c>
       <c r="AC6" t="n">
-        <v>272.4880334847762</v>
+        <v>381.1524193693308</v>
       </c>
       <c r="AD6" t="n">
-        <v>220163.7390186353</v>
+        <v>307961.9340018743</v>
       </c>
       <c r="AE6" t="n">
-        <v>301237.7406638176</v>
+        <v>421367.1044230191</v>
       </c>
       <c r="AF6" t="n">
         <v>8.745495220576647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>272488.0334847762</v>
+        <v>381152.4193693308</v>
       </c>
     </row>
     <row r="7">
@@ -14233,28 +14233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>219.2869990082188</v>
+        <v>307.0851939914578</v>
       </c>
       <c r="AB7" t="n">
-        <v>300.038146302527</v>
+        <v>420.1675100617279</v>
       </c>
       <c r="AC7" t="n">
-        <v>271.4029267256855</v>
+        <v>380.06731261024</v>
       </c>
       <c r="AD7" t="n">
-        <v>219286.9990082188</v>
+        <v>307085.1939914578</v>
       </c>
       <c r="AE7" t="n">
-        <v>300038.146302527</v>
+        <v>420167.5100617279</v>
       </c>
       <c r="AF7" t="n">
         <v>8.83022133953914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>271402.9267256855</v>
+        <v>380067.31261024</v>
       </c>
     </row>
     <row r="8">
@@ -14339,28 +14339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>208.8068393144626</v>
+        <v>306.3668582446155</v>
       </c>
       <c r="AB8" t="n">
-        <v>285.6987294575223</v>
+        <v>419.1846514021616</v>
       </c>
       <c r="AC8" t="n">
-        <v>258.4320436988656</v>
+        <v>379.1782566016918</v>
       </c>
       <c r="AD8" t="n">
-        <v>208806.8393144626</v>
+        <v>306366.8582446154</v>
       </c>
       <c r="AE8" t="n">
-        <v>285698.7294575223</v>
+        <v>419184.6514021616</v>
       </c>
       <c r="AF8" t="n">
         <v>8.898334493999183e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>258432.0436988657</v>
+        <v>379178.2566016918</v>
       </c>
     </row>
     <row r="9">
@@ -14445,28 +14445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>207.9674958335302</v>
+        <v>305.5275147636831</v>
       </c>
       <c r="AB9" t="n">
-        <v>284.5503026776903</v>
+        <v>418.036224622329</v>
       </c>
       <c r="AC9" t="n">
-        <v>257.3932211590733</v>
+        <v>378.1394340618993</v>
       </c>
       <c r="AD9" t="n">
-        <v>207967.4958335302</v>
+        <v>305527.5147636831</v>
       </c>
       <c r="AE9" t="n">
-        <v>284550.3026776903</v>
+        <v>418036.224622329</v>
       </c>
       <c r="AF9" t="n">
         <v>8.987490736828998e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>257393.2211590733</v>
+        <v>378139.4340618993</v>
       </c>
     </row>
     <row r="10">
@@ -14551,28 +14551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>207.3214026144359</v>
+        <v>295.1869174053791</v>
       </c>
       <c r="AB10" t="n">
-        <v>283.6662894317047</v>
+        <v>403.8877631217387</v>
       </c>
       <c r="AC10" t="n">
-        <v>256.5935768965639</v>
+        <v>365.341281869435</v>
       </c>
       <c r="AD10" t="n">
-        <v>207321.4026144359</v>
+        <v>295186.9174053791</v>
       </c>
       <c r="AE10" t="n">
-        <v>283666.2894317047</v>
+        <v>403887.7631217387</v>
       </c>
       <c r="AF10" t="n">
         <v>9.045882230580202e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>256593.5768965639</v>
+        <v>365341.281869435</v>
       </c>
     </row>
     <row r="11">
@@ -14657,28 +14657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>207.0870336617112</v>
+        <v>294.9525484526545</v>
       </c>
       <c r="AB11" t="n">
-        <v>283.3456154909586</v>
+        <v>403.5670891809925</v>
       </c>
       <c r="AC11" t="n">
-        <v>256.3035076266538</v>
+        <v>365.0512125995248</v>
       </c>
       <c r="AD11" t="n">
-        <v>207087.0336617112</v>
+        <v>294952.5484526545</v>
       </c>
       <c r="AE11" t="n">
-        <v>283345.6154909586</v>
+        <v>403567.0891809925</v>
       </c>
       <c r="AF11" t="n">
         <v>9.049943177458577e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>256303.5076266538</v>
+        <v>365051.2125995248</v>
       </c>
     </row>
     <row r="12">
@@ -14763,28 +14763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>206.5073154381132</v>
+        <v>294.3728302290564</v>
       </c>
       <c r="AB12" t="n">
-        <v>282.552419442069</v>
+        <v>402.7738931321025</v>
       </c>
       <c r="AC12" t="n">
-        <v>255.5860130954124</v>
+        <v>364.3337180682833</v>
       </c>
       <c r="AD12" t="n">
-        <v>206507.3154381131</v>
+        <v>294372.8302290564</v>
       </c>
       <c r="AE12" t="n">
-        <v>282552.419442069</v>
+        <v>402773.8931321025</v>
       </c>
       <c r="AF12" t="n">
         <v>9.046989761547031e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>255586.0130954124</v>
+        <v>364333.7180682833</v>
       </c>
     </row>
     <row r="13">
@@ -14869,28 +14869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>205.9227380115855</v>
+        <v>293.7882528025287</v>
       </c>
       <c r="AB13" t="n">
-        <v>281.7525748173584</v>
+        <v>401.9740485073915</v>
       </c>
       <c r="AC13" t="n">
-        <v>254.8625045190949</v>
+        <v>363.6102094919656</v>
       </c>
       <c r="AD13" t="n">
-        <v>205922.7380115855</v>
+        <v>293788.2528025287</v>
       </c>
       <c r="AE13" t="n">
-        <v>281752.5748173584</v>
+        <v>401974.0485073915</v>
       </c>
       <c r="AF13" t="n">
         <v>9.138791772797606e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>254862.5045190949</v>
+        <v>363610.2094919657</v>
       </c>
     </row>
     <row r="14">
@@ -14975,28 +14975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>205.5366192632097</v>
+        <v>293.402134054153</v>
       </c>
       <c r="AB14" t="n">
-        <v>281.224270111474</v>
+        <v>401.4457438015068</v>
       </c>
       <c r="AC14" t="n">
-        <v>254.3846204728596</v>
+        <v>363.1323254457303</v>
       </c>
       <c r="AD14" t="n">
-        <v>205536.6192632097</v>
+        <v>293402.1340541529</v>
       </c>
       <c r="AE14" t="n">
-        <v>281224.270111474</v>
+        <v>401445.7438015068</v>
       </c>
       <c r="AF14" t="n">
         <v>9.140699187240478e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>254384.6204728596</v>
+        <v>363132.3254457303</v>
       </c>
     </row>
     <row r="15">
@@ -15081,28 +15081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>205.4047329167016</v>
+        <v>293.2702477076448</v>
       </c>
       <c r="AB15" t="n">
-        <v>281.0438173937666</v>
+        <v>401.2652910837993</v>
       </c>
       <c r="AC15" t="n">
-        <v>254.2213899092632</v>
+        <v>362.9690948821339</v>
       </c>
       <c r="AD15" t="n">
-        <v>205404.7329167016</v>
+        <v>293270.2477076448</v>
       </c>
       <c r="AE15" t="n">
-        <v>281043.8173937666</v>
+        <v>401265.2910837993</v>
       </c>
       <c r="AF15" t="n">
         <v>9.134300119432128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>254221.3899092632</v>
+        <v>362969.0948821339</v>
       </c>
     </row>
   </sheetData>
@@ -15378,19 +15378,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.8335858601954</v>
+        <v>328.4824169039034</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.2589870146539</v>
+        <v>449.4441344293879</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.0300591312537</v>
+        <v>406.5498170382509</v>
       </c>
       <c r="AD2" t="n">
-        <v>223833.5858601954</v>
+        <v>328482.4169039034</v>
       </c>
       <c r="AE2" t="n">
-        <v>306258.9870146539</v>
+        <v>449444.1344293879</v>
       </c>
       <c r="AF2" t="n">
         <v>9.987685108904396e-06</v>
@@ -15399,7 +15399,7 @@
         <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>277030.0591312537</v>
+        <v>406549.8170382509</v>
       </c>
     </row>
     <row r="3">
@@ -15484,28 +15484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.4207152661611</v>
+        <v>284.0983931690181</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.4879763311887</v>
+        <v>388.7159550703857</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.5775449059875</v>
+        <v>351.6174498847367</v>
       </c>
       <c r="AD3" t="n">
-        <v>198420.7152661611</v>
+        <v>284098.3931690181</v>
       </c>
       <c r="AE3" t="n">
-        <v>271487.9763311888</v>
+        <v>388715.9550703857</v>
       </c>
       <c r="AF3" t="n">
         <v>1.123115988234727e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>245577.5449059875</v>
+        <v>351617.4498847367</v>
       </c>
     </row>
     <row r="4">
@@ -15590,28 +15590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.6197809332746</v>
+        <v>282.1959736096464</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.0238585253194</v>
+        <v>386.1129807004257</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.3485990450985</v>
+        <v>349.2628997353482</v>
       </c>
       <c r="AD4" t="n">
-        <v>196619.7809332746</v>
+        <v>282195.9736096464</v>
       </c>
       <c r="AE4" t="n">
-        <v>269023.8585253194</v>
+        <v>386112.9807004257</v>
       </c>
       <c r="AF4" t="n">
         <v>1.159374733864635e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>243348.5990450985</v>
+        <v>349262.8997353482</v>
       </c>
     </row>
     <row r="5">
@@ -15696,28 +15696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.5861945216531</v>
+        <v>271.2297070057292</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.9272188294682</v>
+        <v>371.1084509354083</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.6927614535477</v>
+        <v>335.6903812321142</v>
       </c>
       <c r="AD5" t="n">
-        <v>185586.1945216531</v>
+        <v>271229.7070057291</v>
       </c>
       <c r="AE5" t="n">
-        <v>253927.2188294682</v>
+        <v>371108.4509354082</v>
       </c>
       <c r="AF5" t="n">
         <v>1.184641564434747e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>229692.7614535477</v>
+        <v>335690.3812321142</v>
       </c>
     </row>
     <row r="6">
@@ -15802,28 +15802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.4808010552663</v>
+        <v>270.1243135393424</v>
       </c>
       <c r="AB6" t="n">
-        <v>252.4147707222406</v>
+        <v>369.5960028281798</v>
       </c>
       <c r="AC6" t="n">
-        <v>228.3246592709391</v>
+        <v>334.3222790495055</v>
       </c>
       <c r="AD6" t="n">
-        <v>184480.8010552663</v>
+        <v>270124.3135393424</v>
       </c>
       <c r="AE6" t="n">
-        <v>252414.7707222406</v>
+        <v>369596.0028281799</v>
       </c>
       <c r="AF6" t="n">
         <v>1.201025884440138e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>228324.6592709391</v>
+        <v>334322.2790495055</v>
       </c>
     </row>
     <row r="7">
@@ -15908,28 +15908,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>183.9919548050387</v>
+        <v>269.6354672891147</v>
       </c>
       <c r="AB7" t="n">
-        <v>251.745909716305</v>
+        <v>368.9271418222439</v>
       </c>
       <c r="AC7" t="n">
-        <v>227.7196334206575</v>
+        <v>333.7172531992238</v>
       </c>
       <c r="AD7" t="n">
-        <v>183991.9548050387</v>
+        <v>269635.4672891147</v>
       </c>
       <c r="AE7" t="n">
-        <v>251745.909716305</v>
+        <v>368927.1418222439</v>
       </c>
       <c r="AF7" t="n">
         <v>1.199775582866693e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>227719.6334206575</v>
+        <v>333717.2531992238</v>
       </c>
     </row>
     <row r="8">
@@ -16014,28 +16014,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.8160782341285</v>
+        <v>269.4595907182045</v>
       </c>
       <c r="AB8" t="n">
-        <v>251.5052676328591</v>
+        <v>368.6864997387979</v>
       </c>
       <c r="AC8" t="n">
-        <v>227.5019578799123</v>
+        <v>333.4995776584785</v>
       </c>
       <c r="AD8" t="n">
-        <v>183816.0782341285</v>
+        <v>269459.5907182045</v>
       </c>
       <c r="AE8" t="n">
-        <v>251505.2676328591</v>
+        <v>368686.4997387979</v>
       </c>
       <c r="AF8" t="n">
         <v>1.207645579273777e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>227501.9578799123</v>
+        <v>333499.5776584785</v>
       </c>
     </row>
   </sheetData>
@@ -16311,28 +16311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.4546495021632</v>
+        <v>288.9957300122826</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.7438713512739</v>
+        <v>395.4167073945933</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.0455088925798</v>
+        <v>357.6786918116869</v>
       </c>
       <c r="AD2" t="n">
-        <v>204454.6495021633</v>
+        <v>288995.7300122826</v>
       </c>
       <c r="AE2" t="n">
-        <v>279743.8713512739</v>
+        <v>395416.7073945933</v>
       </c>
       <c r="AF2" t="n">
         <v>1.233223996307212e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>253045.5088925798</v>
+        <v>357678.6918116869</v>
       </c>
     </row>
     <row r="3">
@@ -16417,28 +16417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.4814496526534</v>
+        <v>266.0556845516961</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.3109258111426</v>
+        <v>364.0291251520395</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.6124795583725</v>
+        <v>329.2866963656141</v>
       </c>
       <c r="AD3" t="n">
-        <v>181481.4496526534</v>
+        <v>266055.6845516961</v>
       </c>
       <c r="AE3" t="n">
-        <v>248310.9258111426</v>
+        <v>364029.1251520395</v>
       </c>
       <c r="AF3" t="n">
         <v>1.344594695060663e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>224612.4795583725</v>
+        <v>329286.6963656141</v>
       </c>
     </row>
     <row r="4">
@@ -16523,28 +16523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.0577638535448</v>
+        <v>264.6319987525875</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.3629760922185</v>
+        <v>362.0811754331144</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.8504394266573</v>
+        <v>327.5246562338986</v>
       </c>
       <c r="AD4" t="n">
-        <v>180057.7638535448</v>
+        <v>264631.9987525875</v>
       </c>
       <c r="AE4" t="n">
-        <v>246362.9760922185</v>
+        <v>362081.1754331144</v>
       </c>
       <c r="AF4" t="n">
         <v>1.375104108815818e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>222850.4394266573</v>
+        <v>327524.6562338985</v>
       </c>
     </row>
     <row r="5">
@@ -16629,28 +16629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.0961890676435</v>
+        <v>254.2363362091126</v>
       </c>
       <c r="AB5" t="n">
-        <v>245.0473070484635</v>
+        <v>347.8573713167044</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.6603359898847</v>
+        <v>314.6583520192289</v>
       </c>
       <c r="AD5" t="n">
-        <v>179096.1890676435</v>
+        <v>254236.3362091126</v>
       </c>
       <c r="AE5" t="n">
-        <v>245047.3070484635</v>
+        <v>347857.3713167044</v>
       </c>
       <c r="AF5" t="n">
         <v>1.394274975434981e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>221660.3359898847</v>
+        <v>314658.3520192289</v>
       </c>
     </row>
   </sheetData>
@@ -30499,28 +30499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.7425862813356</v>
+        <v>272.4962930402086</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.2459332852403</v>
+        <v>372.8414498256153</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.599303863016</v>
+        <v>337.2579851405192</v>
       </c>
       <c r="AD2" t="n">
-        <v>188742.5862813356</v>
+        <v>272496.2930402086</v>
       </c>
       <c r="AE2" t="n">
-        <v>258245.9332852403</v>
+        <v>372841.4498256153</v>
       </c>
       <c r="AF2" t="n">
         <v>1.451129396575033e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>233599.303863016</v>
+        <v>337257.9851405192</v>
       </c>
     </row>
     <row r="3">
@@ -30605,28 +30605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.1203480615137</v>
+        <v>250.5007675950267</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.9756300990391</v>
+        <v>342.7462015372585</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.9772541738776</v>
+        <v>310.0349851099598</v>
       </c>
       <c r="AD3" t="n">
-        <v>176120.3480615137</v>
+        <v>250500.7675950267</v>
       </c>
       <c r="AE3" t="n">
-        <v>240975.6300990391</v>
+        <v>342746.2015372585</v>
       </c>
       <c r="AF3" t="n">
         <v>1.559110945214523e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>217977.2541738776</v>
+        <v>310034.9851099598</v>
       </c>
     </row>
     <row r="4">
@@ -30711,28 +30711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.4369799147073</v>
+        <v>249.8173994482202</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.0406156525042</v>
+        <v>341.8111870907235</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.1314761938187</v>
+        <v>309.1892071299009</v>
       </c>
       <c r="AD4" t="n">
-        <v>175436.9799147072</v>
+        <v>249817.3994482202</v>
       </c>
       <c r="AE4" t="n">
-        <v>240040.6156525041</v>
+        <v>341811.1870907235</v>
       </c>
       <c r="AF4" t="n">
         <v>1.576820546079926e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>217131.4761938187</v>
+        <v>309189.2071299009</v>
       </c>
     </row>
   </sheetData>
@@ -31008,28 +31008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.3166614068257</v>
+        <v>241.1910652166318</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.2982817437428</v>
+        <v>330.0082560280629</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.3189369598549</v>
+        <v>298.5127312423391</v>
       </c>
       <c r="AD2" t="n">
-        <v>168316.6614068256</v>
+        <v>241191.0652166318</v>
       </c>
       <c r="AE2" t="n">
-        <v>230298.2817437428</v>
+        <v>330008.2560280629</v>
       </c>
       <c r="AF2" t="n">
         <v>2.070488290306537e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>208318.9369598549</v>
+        <v>298512.7312423391</v>
       </c>
     </row>
   </sheetData>
@@ -31305,28 +31305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.0494778728895</v>
+        <v>358.8742649872818</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.2334593805904</v>
+        <v>491.0276017707753</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.1894239591224</v>
+        <v>444.1646166193392</v>
       </c>
       <c r="AD2" t="n">
-        <v>253049.4778728895</v>
+        <v>358874.2649872818</v>
       </c>
       <c r="AE2" t="n">
-        <v>346233.4593805904</v>
+        <v>491027.6017707753</v>
       </c>
       <c r="AF2" t="n">
         <v>8.388328695702726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>313189.4239591224</v>
+        <v>444164.6166193392</v>
       </c>
     </row>
     <row r="3">
@@ -31411,28 +31411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.3629697917018</v>
+        <v>311.5331562950956</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.6691164125399</v>
+        <v>426.2534083158127</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.5463095129164</v>
+        <v>385.5723812765667</v>
       </c>
       <c r="AD3" t="n">
-        <v>215362.9697917018</v>
+        <v>311533.1562950956</v>
       </c>
       <c r="AE3" t="n">
-        <v>294669.11641254</v>
+        <v>426253.4083158127</v>
       </c>
       <c r="AF3" t="n">
         <v>9.654129096577537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>266546.3095129164</v>
+        <v>385572.3812765667</v>
       </c>
     </row>
     <row r="4">
@@ -31517,28 +31517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.1468305844592</v>
+        <v>299.282851669072</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.9544558111735</v>
+        <v>409.4920010811898</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.4268726601655</v>
+        <v>370.4106592236334</v>
       </c>
       <c r="AD4" t="n">
-        <v>203146.8305844592</v>
+        <v>299282.851669072</v>
       </c>
       <c r="AE4" t="n">
-        <v>277954.4558111735</v>
+        <v>409492.0010811898</v>
       </c>
       <c r="AF4" t="n">
         <v>1.007371951976174e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>251426.8726601655</v>
+        <v>370410.6592236335</v>
       </c>
     </row>
     <row r="5">
@@ -31623,28 +31623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.3867927394166</v>
+        <v>287.8692242428885</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.5462943841978</v>
+        <v>393.8753725029812</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.2485427799038</v>
+        <v>356.2844597588532</v>
       </c>
       <c r="AD5" t="n">
-        <v>201386.7927394166</v>
+        <v>287869.2242428886</v>
       </c>
       <c r="AE5" t="n">
-        <v>275546.2943841978</v>
+        <v>393875.3725029812</v>
       </c>
       <c r="AF5" t="n">
         <v>1.037144846824109e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>249248.5427799038</v>
+        <v>356284.4597588532</v>
       </c>
     </row>
     <row r="6">
@@ -31729,28 +31729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.6800181234476</v>
+        <v>287.1624496269196</v>
       </c>
       <c r="AB6" t="n">
-        <v>274.5792541739341</v>
+        <v>392.908332292717</v>
       </c>
       <c r="AC6" t="n">
-        <v>248.3737955300579</v>
+        <v>355.4097125090072</v>
       </c>
       <c r="AD6" t="n">
-        <v>200680.0181234476</v>
+        <v>287162.4496269196</v>
       </c>
       <c r="AE6" t="n">
-        <v>274579.2541739341</v>
+        <v>392908.332292717</v>
       </c>
       <c r="AF6" t="n">
         <v>1.044236613969982e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>248373.7955300579</v>
+        <v>355409.7125090072</v>
       </c>
     </row>
     <row r="7">
@@ -31835,28 +31835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>199.6034877954446</v>
+        <v>276.533814944261</v>
       </c>
       <c r="AB7" t="n">
-        <v>273.1062978859949</v>
+        <v>378.3657654176347</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.0414161229321</v>
+        <v>342.255067805862</v>
       </c>
       <c r="AD7" t="n">
-        <v>199603.4877954446</v>
+        <v>276533.814944261</v>
       </c>
       <c r="AE7" t="n">
-        <v>273106.297885995</v>
+        <v>378365.7654176347</v>
       </c>
       <c r="AF7" t="n">
         <v>1.060591523482055e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>247041.4161229321</v>
+        <v>342255.067805862</v>
       </c>
     </row>
     <row r="8">
@@ -31941,28 +31941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>199.1913225881848</v>
+        <v>276.1216497370012</v>
       </c>
       <c r="AB8" t="n">
-        <v>272.5423552659768</v>
+        <v>377.8018227976163</v>
       </c>
       <c r="AC8" t="n">
-        <v>246.5312953950698</v>
+        <v>341.7449470779997</v>
       </c>
       <c r="AD8" t="n">
-        <v>199191.3225881848</v>
+        <v>276121.6497370012</v>
       </c>
       <c r="AE8" t="n">
-        <v>272542.3552659768</v>
+        <v>377801.8227976163</v>
       </c>
       <c r="AF8" t="n">
         <v>1.059693743342882e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>246531.2953950698</v>
+        <v>341744.9470779996</v>
       </c>
     </row>
     <row r="9">
@@ -32047,28 +32047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>188.624026966061</v>
+        <v>275.1737782772373</v>
       </c>
       <c r="AB9" t="n">
-        <v>258.0837151996139</v>
+        <v>376.5049032492298</v>
       </c>
       <c r="AC9" t="n">
-        <v>233.4525676438073</v>
+        <v>340.5718037110731</v>
       </c>
       <c r="AD9" t="n">
-        <v>188624.026966061</v>
+        <v>275173.7782772373</v>
       </c>
       <c r="AE9" t="n">
-        <v>258083.7151996139</v>
+        <v>376504.9032492298</v>
       </c>
       <c r="AF9" t="n">
         <v>1.069235267147585e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>233452.5676438073</v>
+        <v>340571.8037110731</v>
       </c>
     </row>
     <row r="10">
@@ -32153,28 +32153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>188.2037059245341</v>
+        <v>274.7534572357103</v>
       </c>
       <c r="AB10" t="n">
-        <v>257.5086134073413</v>
+        <v>375.929801456957</v>
       </c>
       <c r="AC10" t="n">
-        <v>232.9323527594286</v>
+        <v>340.0515888266943</v>
       </c>
       <c r="AD10" t="n">
-        <v>188203.7059245341</v>
+        <v>274753.4572357103</v>
       </c>
       <c r="AE10" t="n">
-        <v>257508.6134073414</v>
+        <v>375929.801456957</v>
       </c>
       <c r="AF10" t="n">
         <v>1.067641533412153e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>232932.3527594286</v>
+        <v>340051.5888266944</v>
       </c>
     </row>
   </sheetData>
@@ -32450,28 +32450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.0758810660655</v>
+        <v>413.5798245369829</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.7898853686211</v>
+        <v>565.8781617856318</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.3025699931056</v>
+        <v>511.8715442397985</v>
       </c>
       <c r="AD2" t="n">
-        <v>287075.8810660655</v>
+        <v>413579.8245369829</v>
       </c>
       <c r="AE2" t="n">
-        <v>392789.8853686211</v>
+        <v>565878.1617856318</v>
       </c>
       <c r="AF2" t="n">
         <v>6.82949702402693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>355302.5699931057</v>
+        <v>511871.5442397986</v>
       </c>
     </row>
     <row r="3">
@@ -32556,28 +32556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.3755736656732</v>
+        <v>341.6715417875711</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.3654409786367</v>
+        <v>467.4900769583464</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.4540725765789</v>
+        <v>422.8734801398849</v>
       </c>
       <c r="AD3" t="n">
-        <v>244375.5736656732</v>
+        <v>341671.5417875711</v>
       </c>
       <c r="AE3" t="n">
-        <v>334365.4409786367</v>
+        <v>467490.0769583464</v>
       </c>
       <c r="AF3" t="n">
         <v>8.17173866527177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>302454.0725765789</v>
+        <v>422873.4801398849</v>
       </c>
     </row>
     <row r="4">
@@ -32662,28 +32662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.2085405253785</v>
+        <v>318.8023452730971</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.3497253475894</v>
+        <v>436.1994333694986</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.1577515601374</v>
+        <v>394.5691716584627</v>
       </c>
       <c r="AD4" t="n">
-        <v>231208.5405253785</v>
+        <v>318802.3452730971</v>
       </c>
       <c r="AE4" t="n">
-        <v>316349.7253475894</v>
+        <v>436199.4333694986</v>
       </c>
       <c r="AF4" t="n">
         <v>8.612256033006033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>286157.7515601374</v>
+        <v>394569.1716584627</v>
       </c>
     </row>
     <row r="5">
@@ -32768,28 +32768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.2383985660674</v>
+        <v>306.7980378950049</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.9716490334752</v>
+        <v>419.7746104221282</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.3427758626625</v>
+        <v>379.7119107608056</v>
       </c>
       <c r="AD5" t="n">
-        <v>219238.3985660674</v>
+        <v>306798.037895005</v>
       </c>
       <c r="AE5" t="n">
-        <v>299971.6490334752</v>
+        <v>419774.6104221282</v>
       </c>
       <c r="AF5" t="n">
         <v>8.900400298381962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>271342.7758626625</v>
+        <v>379711.9107608055</v>
       </c>
     </row>
     <row r="6">
@@ -32874,28 +32874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.3265722052742</v>
+        <v>305.8862115342118</v>
       </c>
       <c r="AB6" t="n">
-        <v>298.7240479796986</v>
+        <v>418.527009368351</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.214244102439</v>
+        <v>378.5833790005817</v>
       </c>
       <c r="AD6" t="n">
-        <v>218326.5722052742</v>
+        <v>305886.2115342118</v>
       </c>
       <c r="AE6" t="n">
-        <v>298724.0479796986</v>
+        <v>418527.009368351</v>
       </c>
       <c r="AF6" t="n">
         <v>9.027807605595328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>270214.244102439</v>
+        <v>378583.3790005817</v>
       </c>
     </row>
     <row r="7">
@@ -32980,28 +32980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.5292941289518</v>
+        <v>304.8242512209919</v>
       </c>
       <c r="AB7" t="n">
-        <v>283.9507357733915</v>
+        <v>417.0739884174212</v>
       </c>
       <c r="AC7" t="n">
-        <v>256.8508760786232</v>
+        <v>377.2690323298809</v>
       </c>
       <c r="AD7" t="n">
-        <v>207529.2941289518</v>
+        <v>304824.2512209919</v>
       </c>
       <c r="AE7" t="n">
-        <v>283950.7357733915</v>
+        <v>417073.9884174212</v>
       </c>
       <c r="AF7" t="n">
         <v>9.110251327094201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH7" t="n">
-        <v>256850.8760786232</v>
+        <v>377269.0323298809</v>
       </c>
     </row>
     <row r="8">
@@ -33086,28 +33086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>206.8991765440621</v>
+        <v>304.1941336361022</v>
       </c>
       <c r="AB8" t="n">
-        <v>283.08858109492</v>
+        <v>416.2118337389492</v>
       </c>
       <c r="AC8" t="n">
-        <v>256.071004232623</v>
+        <v>376.4891604838805</v>
       </c>
       <c r="AD8" t="n">
-        <v>206899.1765440621</v>
+        <v>304194.1336361022</v>
       </c>
       <c r="AE8" t="n">
-        <v>283088.58109492</v>
+        <v>416211.8337389492</v>
       </c>
       <c r="AF8" t="n">
         <v>9.181564202898721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>256071.004232623</v>
+        <v>376489.1604838806</v>
       </c>
     </row>
     <row r="9">
@@ -33192,28 +33192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.3037622529816</v>
+        <v>293.9307213896234</v>
       </c>
       <c r="AB9" t="n">
-        <v>282.2739089940395</v>
+        <v>402.1689803135249</v>
       </c>
       <c r="AC9" t="n">
-        <v>255.3340832936508</v>
+        <v>363.7865372801102</v>
       </c>
       <c r="AD9" t="n">
-        <v>206303.7622529816</v>
+        <v>293930.7213896234</v>
       </c>
       <c r="AE9" t="n">
-        <v>282273.9089940395</v>
+        <v>402168.9803135249</v>
       </c>
       <c r="AF9" t="n">
         <v>9.247971960261658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>255334.0832936508</v>
+        <v>363786.5372801102</v>
       </c>
     </row>
     <row r="10">
@@ -33298,28 +33298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>205.708106251058</v>
+        <v>293.3350653876998</v>
       </c>
       <c r="AB10" t="n">
-        <v>281.4589061737199</v>
+        <v>401.3539774932049</v>
       </c>
       <c r="AC10" t="n">
-        <v>254.5968631986385</v>
+        <v>363.0493171850978</v>
       </c>
       <c r="AD10" t="n">
-        <v>205708.106251058</v>
+        <v>293335.0653876998</v>
       </c>
       <c r="AE10" t="n">
-        <v>281458.9061737198</v>
+        <v>401353.9774932049</v>
       </c>
       <c r="AF10" t="n">
         <v>9.322617801161098e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>254596.8631986385</v>
+        <v>363049.3171850978</v>
       </c>
     </row>
     <row r="11">
@@ -33404,28 +33404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>205.0661551286144</v>
+        <v>292.6931142652562</v>
       </c>
       <c r="AB11" t="n">
-        <v>280.5805603271082</v>
+        <v>400.4756316465928</v>
       </c>
       <c r="AC11" t="n">
-        <v>253.8023454468611</v>
+        <v>362.2547994333202</v>
       </c>
       <c r="AD11" t="n">
-        <v>205066.1551286144</v>
+        <v>292693.1142652562</v>
       </c>
       <c r="AE11" t="n">
-        <v>280580.5603271082</v>
+        <v>400475.6316465928</v>
       </c>
       <c r="AF11" t="n">
         <v>9.329157959083205e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>253802.3454468611</v>
+        <v>362254.7994333202</v>
       </c>
     </row>
     <row r="12">
@@ -33510,28 +33510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>204.2729788729643</v>
+        <v>291.7984527831209</v>
       </c>
       <c r="AB12" t="n">
-        <v>279.4953015816616</v>
+        <v>399.2515163370562</v>
       </c>
       <c r="AC12" t="n">
-        <v>252.8206622729093</v>
+        <v>361.1475119708693</v>
       </c>
       <c r="AD12" t="n">
-        <v>204272.9788729643</v>
+        <v>291798.4527831209</v>
       </c>
       <c r="AE12" t="n">
-        <v>279495.3015816616</v>
+        <v>399251.5163370562</v>
       </c>
       <c r="AF12" t="n">
         <v>9.408205829353292e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>252820.6622729093</v>
+        <v>361147.5119708693</v>
       </c>
     </row>
     <row r="13">
@@ -33616,28 +33616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>204.1212540711844</v>
+        <v>291.6467279813409</v>
       </c>
       <c r="AB13" t="n">
-        <v>279.2877050142405</v>
+        <v>399.043919769635</v>
       </c>
       <c r="AC13" t="n">
-        <v>252.6328784305192</v>
+        <v>360.9597281284792</v>
       </c>
       <c r="AD13" t="n">
-        <v>204121.2540711843</v>
+        <v>291646.7279813409</v>
       </c>
       <c r="AE13" t="n">
-        <v>279287.7050142405</v>
+        <v>399043.919769635</v>
       </c>
       <c r="AF13" t="n">
         <v>9.407828512550095e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>252632.8784305192</v>
+        <v>360959.7281284792</v>
       </c>
     </row>
     <row r="14">
@@ -33722,28 +33722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>204.0176322198134</v>
+        <v>291.5431061299699</v>
       </c>
       <c r="AB14" t="n">
-        <v>279.1459250257213</v>
+        <v>398.9021397811158</v>
       </c>
       <c r="AC14" t="n">
-        <v>252.5046297251149</v>
+        <v>360.8314794230748</v>
       </c>
       <c r="AD14" t="n">
-        <v>204017.6322198134</v>
+        <v>291543.1061299699</v>
       </c>
       <c r="AE14" t="n">
-        <v>279145.9250257213</v>
+        <v>398902.1397811158</v>
       </c>
       <c r="AF14" t="n">
         <v>9.409777982699954e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>252504.6297251148</v>
+        <v>360831.4794230748</v>
       </c>
     </row>
   </sheetData>
@@ -34019,28 +34019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.0909831573724</v>
+        <v>246.3238419582249</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.8847664559623</v>
+        <v>337.0311476080354</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.3266413767311</v>
+        <v>304.8653679066114</v>
       </c>
       <c r="AD2" t="n">
-        <v>165090.9831573725</v>
+        <v>246323.8419582249</v>
       </c>
       <c r="AE2" t="n">
-        <v>225884.7664559623</v>
+        <v>337031.1476080354</v>
       </c>
       <c r="AF2" t="n">
         <v>2.367654550595306e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>204326.6413767311</v>
+        <v>304865.3679066114</v>
       </c>
     </row>
   </sheetData>
@@ -34316,28 +34316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.4210709184261</v>
+        <v>302.3758872741359</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.4851011711363</v>
+        <v>413.7240288511387</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.0935406384127</v>
+        <v>374.2387882029067</v>
       </c>
       <c r="AD2" t="n">
-        <v>217421.0709184261</v>
+        <v>302375.8872741359</v>
       </c>
       <c r="AE2" t="n">
-        <v>297485.1011711363</v>
+        <v>413724.0288511387</v>
       </c>
       <c r="AF2" t="n">
         <v>1.139915034069415e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>269093.5406384126</v>
+        <v>374238.7882029067</v>
       </c>
     </row>
     <row r="3">
@@ -34422,28 +34422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.8709182684362</v>
+        <v>278.7574037865842</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.2627433560274</v>
+        <v>381.4081777695177</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.9464394288043</v>
+        <v>345.0071165929338</v>
       </c>
       <c r="AD3" t="n">
-        <v>193870.9182684362</v>
+        <v>278757.4037865842</v>
       </c>
       <c r="AE3" t="n">
-        <v>265262.7433560275</v>
+        <v>381408.1777695177</v>
       </c>
       <c r="AF3" t="n">
         <v>1.25045986105598e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>239946.4394288043</v>
+        <v>345007.1165929338</v>
       </c>
     </row>
     <row r="4">
@@ -34528,28 +34528,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.1747037706123</v>
+        <v>267.1285090964645</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.2594666795467</v>
+        <v>365.4970110238701</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.4704930175819</v>
+        <v>330.6144892700279</v>
       </c>
       <c r="AD4" t="n">
-        <v>182174.7037706123</v>
+        <v>267128.5090964645</v>
       </c>
       <c r="AE4" t="n">
-        <v>249259.4666795467</v>
+        <v>365497.0110238701</v>
       </c>
       <c r="AF4" t="n">
         <v>1.300529822568215e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>225470.4930175819</v>
+        <v>330614.489270028</v>
       </c>
     </row>
     <row r="5">
@@ -34634,28 +34634,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.2355270045771</v>
+        <v>256.7130700809879</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.9744435947033</v>
+        <v>351.2461478659894</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.3081107324143</v>
+        <v>317.7237084908289</v>
       </c>
       <c r="AD5" t="n">
-        <v>181235.5270045771</v>
+        <v>256713.0700809879</v>
       </c>
       <c r="AE5" t="n">
-        <v>247974.4435947033</v>
+        <v>351246.1478659894</v>
       </c>
       <c r="AF5" t="n">
         <v>1.31643244157343e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>224308.1107324143</v>
+        <v>317723.7084908289</v>
       </c>
     </row>
     <row r="6">
@@ -34740,28 +34740,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.6706832094354</v>
+        <v>256.1482262858462</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.2015993950413</v>
+        <v>350.4733036663274</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.6090256984741</v>
+        <v>317.0246234568888</v>
       </c>
       <c r="AD6" t="n">
-        <v>180670.6832094354</v>
+        <v>256148.2262858462</v>
       </c>
       <c r="AE6" t="n">
-        <v>247201.5993950413</v>
+        <v>350473.3036663274</v>
       </c>
       <c r="AF6" t="n">
         <v>1.325223795280811e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>223609.0256984741</v>
+        <v>317024.6234568888</v>
       </c>
     </row>
   </sheetData>
@@ -35037,28 +35037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.7724002319775</v>
+        <v>341.8426622535438</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.9624436583209</v>
+        <v>467.7242115291923</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.0439227198124</v>
+        <v>423.0852692358993</v>
       </c>
       <c r="AD2" t="n">
-        <v>236772.4002319775</v>
+        <v>341842.6622535438</v>
       </c>
       <c r="AE2" t="n">
-        <v>323962.4436583209</v>
+        <v>467724.2115291923</v>
       </c>
       <c r="AF2" t="n">
         <v>9.390898687781612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>293043.9227198124</v>
+        <v>423085.2692358993</v>
       </c>
     </row>
     <row r="3">
@@ -35143,28 +35143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.5195479107084</v>
+        <v>296.4467596451063</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.0421329182753</v>
+        <v>405.6115348544504</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.5517960223124</v>
+        <v>366.9005392473055</v>
       </c>
       <c r="AD3" t="n">
-        <v>210519.5479107084</v>
+        <v>296446.7596451063</v>
       </c>
       <c r="AE3" t="n">
-        <v>288042.1329182753</v>
+        <v>405611.5348544504</v>
       </c>
       <c r="AF3" t="n">
         <v>1.064466264773031e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>260551.7960223125</v>
+        <v>366900.5392473055</v>
       </c>
     </row>
     <row r="4">
@@ -35249,28 +35249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.4967734279968</v>
+        <v>284.3898197436137</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.5920424636616</v>
+        <v>389.1146977665804</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.6716791128349</v>
+        <v>351.9781371376455</v>
       </c>
       <c r="AD4" t="n">
-        <v>198496.7734279968</v>
+        <v>284389.8197436137</v>
       </c>
       <c r="AE4" t="n">
-        <v>271592.0424636616</v>
+        <v>389114.6977665804</v>
       </c>
       <c r="AF4" t="n">
         <v>1.110761252744201e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>245671.6791128349</v>
+        <v>351978.1371376456</v>
       </c>
     </row>
     <row r="5">
@@ -35355,28 +35355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.7229002604801</v>
+        <v>283.615946576097</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.5331950549912</v>
+        <v>388.0558503579094</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.713886614746</v>
+        <v>351.0203446395565</v>
       </c>
       <c r="AD5" t="n">
-        <v>197722.9002604801</v>
+        <v>283615.946576097</v>
       </c>
       <c r="AE5" t="n">
-        <v>270533.1950549912</v>
+        <v>388055.8503579095</v>
       </c>
       <c r="AF5" t="n">
         <v>1.122403505358291e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>244713.886614746</v>
+        <v>351020.3446395565</v>
       </c>
     </row>
     <row r="6">
@@ -35461,28 +35461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.9647792018733</v>
+        <v>272.9251453251945</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.8134592078083</v>
+        <v>373.4282244415604</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.3989816975345</v>
+        <v>337.7887588106619</v>
       </c>
       <c r="AD6" t="n">
-        <v>186964.7792018733</v>
+        <v>272925.1453251945</v>
       </c>
       <c r="AE6" t="n">
-        <v>255813.4592078082</v>
+        <v>373428.2244415604</v>
       </c>
       <c r="AF6" t="n">
         <v>1.139970568463013e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>231398.9816975345</v>
+        <v>337788.7588106618</v>
       </c>
     </row>
     <row r="7">
@@ -35567,28 +35567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.9964302162708</v>
+        <v>271.956796339592</v>
       </c>
       <c r="AB7" t="n">
-        <v>254.4885214051654</v>
+        <v>372.1032866389169</v>
       </c>
       <c r="AC7" t="n">
-        <v>230.2004940992136</v>
+        <v>336.5902712123407</v>
       </c>
       <c r="AD7" t="n">
-        <v>185996.4302162708</v>
+        <v>271956.796339592</v>
       </c>
       <c r="AE7" t="n">
-        <v>254488.5214051654</v>
+        <v>372103.2866389169</v>
       </c>
       <c r="AF7" t="n">
         <v>1.149161430736604e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>230200.4940992136</v>
+        <v>336590.2712123407</v>
       </c>
     </row>
     <row r="8">
@@ -35673,28 +35673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>185.5118115967537</v>
+        <v>271.4721777200749</v>
       </c>
       <c r="AB8" t="n">
-        <v>253.8254448300779</v>
+        <v>371.4402100638289</v>
       </c>
       <c r="AC8" t="n">
-        <v>229.6007006218184</v>
+        <v>335.9904777349454</v>
       </c>
       <c r="AD8" t="n">
-        <v>185511.8115967537</v>
+        <v>271472.1777200748</v>
       </c>
       <c r="AE8" t="n">
-        <v>253825.4448300778</v>
+        <v>371440.210063829</v>
       </c>
       <c r="AF8" t="n">
         <v>1.156989586597351e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>229600.7006218184</v>
+        <v>335990.4777349454</v>
       </c>
     </row>
     <row r="9">
@@ -35779,28 +35779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>185.631333329832</v>
+        <v>271.5916994531531</v>
       </c>
       <c r="AB9" t="n">
-        <v>253.9889797382021</v>
+        <v>371.6037449719533</v>
       </c>
       <c r="AC9" t="n">
-        <v>229.7486279878341</v>
+        <v>336.1384051009611</v>
       </c>
       <c r="AD9" t="n">
-        <v>185631.3333298319</v>
+        <v>271591.6994531531</v>
       </c>
       <c r="AE9" t="n">
-        <v>253988.9797382021</v>
+        <v>371603.7449719533</v>
       </c>
       <c r="AF9" t="n">
         <v>1.15653781979744e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>229748.627987834</v>
+        <v>336138.4051009611</v>
       </c>
     </row>
   </sheetData>
